--- a/benchmark_statistics/Non-Linear-Integer-Arithmetic/splitClauses_1/UNKNOWN-has-solvability-238.xlsx
+++ b/benchmark_statistics/Non-Linear-Integer-Arithmetic/splitClauses_1/UNKNOWN-has-solvability-238.xlsx
@@ -499,25 +499,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>864</t>
-        </is>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>433</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="3">
@@ -542,25 +534,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>317</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="4">
@@ -585,25 +569,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="F4" t="n">
+        <v>27</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -628,25 +604,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8075</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16148</t>
-        </is>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8075</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16148</v>
       </c>
     </row>
     <row r="6">
@@ -671,25 +639,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/RedBlackTree-FunSat01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1052</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2222</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1052</v>
+      </c>
+      <c r="G6" t="n">
+        <v>412</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2222</v>
+      </c>
+      <c r="I6" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="7">
@@ -714,25 +674,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>385</v>
+      </c>
+      <c r="H7" t="n">
+        <v>34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="8">
@@ -757,25 +709,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>83329</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>212410</t>
-        </is>
+      <c r="F8" t="n">
+        <v>101</v>
+      </c>
+      <c r="G8" t="n">
+        <v>83329</v>
+      </c>
+      <c r="H8" t="n">
+        <v>310</v>
+      </c>
+      <c r="I8" t="n">
+        <v>212410</v>
       </c>
     </row>
     <row r="9">
@@ -800,25 +744,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/aastore_aaload1/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
+      <c r="F9" t="n">
+        <v>358</v>
+      </c>
+      <c r="G9" t="n">
+        <v>68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>723</v>
+      </c>
+      <c r="I9" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -843,25 +779,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>17714</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>35426</t>
-        </is>
+      <c r="F10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17714</v>
+      </c>
+      <c r="H10" t="n">
+        <v>133</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35426</v>
       </c>
     </row>
     <row r="11">
@@ -886,25 +814,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>18776</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>58925</t>
-        </is>
+      <c r="F11" t="n">
+        <v>121</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18776</v>
+      </c>
+      <c r="H11" t="n">
+        <v>377</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58925</v>
       </c>
     </row>
     <row r="12">
@@ -929,25 +849,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>8074</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>16146</t>
-        </is>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8074</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16146</v>
       </c>
     </row>
     <row r="13">
@@ -972,25 +884,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>885</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1762</t>
-        </is>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>885</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1762</v>
       </c>
     </row>
     <row r="14">
@@ -1015,25 +919,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3732</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>11207</t>
-        </is>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3732</v>
+      </c>
+      <c r="H14" t="n">
+        <v>46</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11207</v>
       </c>
     </row>
     <row r="15">
@@ -1058,25 +954,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>343</v>
+      </c>
+      <c r="H15" t="n">
+        <v>34</v>
+      </c>
+      <c r="I15" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="16">
@@ -1101,25 +989,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>62809</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>596</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>222582</t>
-        </is>
+      <c r="F16" t="n">
+        <v>185</v>
+      </c>
+      <c r="G16" t="n">
+        <v>62809</v>
+      </c>
+      <c r="H16" t="n">
+        <v>596</v>
+      </c>
+      <c r="I16" t="n">
+        <v>222582</v>
       </c>
     </row>
     <row r="17">
@@ -1144,25 +1024,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>164607</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>507104</t>
-        </is>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>164607</v>
+      </c>
+      <c r="H17" t="n">
+        <v>449</v>
+      </c>
+      <c r="I17" t="n">
+        <v>507104</v>
       </c>
     </row>
     <row r="18">
@@ -1187,25 +1059,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4828</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>9644</t>
-        </is>
+      <c r="F18" t="n">
+        <v>14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4828</v>
+      </c>
+      <c r="H18" t="n">
+        <v>28</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9644</v>
       </c>
     </row>
     <row r="19">
@@ -1230,25 +1094,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>848</t>
-        </is>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>425</v>
+      </c>
+      <c r="H19" t="n">
+        <v>34</v>
+      </c>
+      <c r="I19" t="n">
+        <v>848</v>
       </c>
     </row>
     <row r="20">
@@ -1273,25 +1129,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F20" t="n">
+        <v>23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>47</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -1316,25 +1164,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
+      <c r="F21" t="n">
+        <v>14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>342</v>
+      </c>
+      <c r="H21" t="n">
+        <v>32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="22">
@@ -1359,25 +1199,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringBuilderChars01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>577</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
+      <c r="F22" t="n">
+        <v>280</v>
+      </c>
+      <c r="G22" t="n">
+        <v>131</v>
+      </c>
+      <c r="H22" t="n">
+        <v>577</v>
+      </c>
+      <c r="I22" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="23">
@@ -1402,25 +1234,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F23" t="n">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1445,25 +1269,17 @@
           <t xml:space="preserve"> llreve-bench/./smt2/quant/clausified-no-arrays</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
+      <c r="F24" t="n">
+        <v>16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>86</v>
+      </c>
+      <c r="H24" t="n">
+        <v>78</v>
+      </c>
+      <c r="I24" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="25">
@@ -1488,25 +1304,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F25" t="n">
+        <v>15</v>
+      </c>
+      <c r="G25" t="n">
+        <v>343</v>
+      </c>
+      <c r="H25" t="n">
+        <v>34</v>
+      </c>
+      <c r="I25" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="26">
@@ -1531,25 +1339,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F26" t="n">
+        <v>15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>343</v>
+      </c>
+      <c r="H26" t="n">
+        <v>34</v>
+      </c>
+      <c r="I26" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="27">
@@ -1574,25 +1374,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6300</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>12584</t>
-        </is>
+      <c r="F27" t="n">
+        <v>13</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6300</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12584</v>
       </c>
     </row>
     <row r="28">
@@ -1617,25 +1409,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatEvenOdd01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="F28" t="n">
+        <v>123</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>247</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1660,25 +1444,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatHanoi01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="F29" t="n">
+        <v>110</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18</v>
+      </c>
+      <c r="H29" t="n">
+        <v>225</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -1703,25 +1479,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>340</v>
+      </c>
+      <c r="H30" t="n">
+        <v>34</v>
+      </c>
+      <c r="I30" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="31">
@@ -1746,25 +1514,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>864</t>
-        </is>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>433</v>
+      </c>
+      <c r="H31" t="n">
+        <v>34</v>
+      </c>
+      <c r="I31" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="32">
@@ -1789,25 +1549,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>58907</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>178496</t>
-        </is>
+      <c r="F32" t="n">
+        <v>52</v>
+      </c>
+      <c r="G32" t="n">
+        <v>58907</v>
+      </c>
+      <c r="H32" t="n">
+        <v>146</v>
+      </c>
+      <c r="I32" t="n">
+        <v>178496</v>
       </c>
     </row>
     <row r="33">
@@ -1832,25 +1584,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>20496</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>40990</t>
-        </is>
+      <c r="F33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20496</v>
+      </c>
+      <c r="H33" t="n">
+        <v>24</v>
+      </c>
+      <c r="I33" t="n">
+        <v>40990</v>
       </c>
     </row>
     <row r="34">
@@ -1875,25 +1619,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1436</t>
-        </is>
+      <c r="F34" t="n">
+        <v>123</v>
+      </c>
+      <c r="G34" t="n">
+        <v>393</v>
+      </c>
+      <c r="H34" t="n">
+        <v>416</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1436</v>
       </c>
     </row>
     <row r="35">
@@ -1918,25 +1654,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>59976</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>210667</t>
-        </is>
+      <c r="F35" t="n">
+        <v>164</v>
+      </c>
+      <c r="G35" t="n">
+        <v>59976</v>
+      </c>
+      <c r="H35" t="n">
+        <v>524</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210667</v>
       </c>
     </row>
     <row r="36">
@@ -1961,25 +1689,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/SortedListInsert-FunSat02/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>441</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
+      <c r="F36" t="n">
+        <v>216</v>
+      </c>
+      <c r="G36" t="n">
+        <v>86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>441</v>
+      </c>
+      <c r="I36" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -2004,25 +1724,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>91473</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>315472</t>
-        </is>
+      <c r="F37" t="n">
+        <v>142</v>
+      </c>
+      <c r="G37" t="n">
+        <v>91473</v>
+      </c>
+      <c r="H37" t="n">
+        <v>449</v>
+      </c>
+      <c r="I37" t="n">
+        <v>315472</v>
       </c>
     </row>
     <row r="38">
@@ -2047,25 +1759,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>4984</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>9956</t>
-        </is>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4984</v>
+      </c>
+      <c r="H38" t="n">
+        <v>28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9956</v>
       </c>
     </row>
     <row r="39">
@@ -2090,25 +1794,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringMiscellaneous01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>937</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
+      <c r="F39" t="n">
+        <v>463</v>
+      </c>
+      <c r="G39" t="n">
+        <v>72</v>
+      </c>
+      <c r="H39" t="n">
+        <v>937</v>
+      </c>
+      <c r="I39" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -2133,25 +1829,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>8269</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>16536</t>
-        </is>
+      <c r="F40" t="n">
+        <v>12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8269</v>
+      </c>
+      <c r="H40" t="n">
+        <v>24</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16536</v>
       </c>
     </row>
     <row r="41">
@@ -2176,25 +1864,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
+      <c r="F41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G41" t="n">
+        <v>504</v>
+      </c>
+      <c r="H41" t="n">
+        <v>34</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1006</v>
       </c>
     </row>
     <row r="42">
@@ -2219,25 +1899,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F42" t="n">
+        <v>15</v>
+      </c>
+      <c r="G42" t="n">
+        <v>317</v>
+      </c>
+      <c r="H42" t="n">
+        <v>34</v>
+      </c>
+      <c r="I42" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="43">
@@ -2262,25 +1934,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>15608</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>51073</t>
-        </is>
+      <c r="F43" t="n">
+        <v>286</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15608</v>
+      </c>
+      <c r="H43" t="n">
+        <v>953</v>
+      </c>
+      <c r="I43" t="n">
+        <v>51073</v>
       </c>
     </row>
     <row r="44">
@@ -2305,25 +1969,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2348,25 +2004,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="F45" t="n">
+        <v>26</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H45" t="n">
+        <v>70</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="46">
@@ -2391,25 +2039,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2434,25 +2074,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>343</v>
+      </c>
+      <c r="H47" t="n">
+        <v>34</v>
+      </c>
+      <c r="I47" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="48">
@@ -2477,25 +2109,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringBuilderChars04/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>577</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
+      <c r="F48" t="n">
+        <v>282</v>
+      </c>
+      <c r="G48" t="n">
+        <v>86</v>
+      </c>
+      <c r="H48" t="n">
+        <v>577</v>
+      </c>
+      <c r="I48" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="49">
@@ -2520,25 +2144,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>3911</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>7820</t>
-        </is>
+      <c r="F49" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3911</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7820</v>
       </c>
     </row>
     <row r="50">
@@ -2563,25 +2179,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>16</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2606,25 +2214,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>16</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2649,25 +2249,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>21887</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>43750</t>
-        </is>
+      <c r="F52" t="n">
+        <v>12</v>
+      </c>
+      <c r="G52" t="n">
+        <v>21887</v>
+      </c>
+      <c r="H52" t="n">
+        <v>24</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43750</v>
       </c>
     </row>
     <row r="53">
@@ -2692,25 +2284,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F53" t="n">
+        <v>15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>343</v>
+      </c>
+      <c r="H53" t="n">
+        <v>34</v>
+      </c>
+      <c r="I53" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="54">
@@ -2735,25 +2319,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>19220</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>38438</t>
-        </is>
+      <c r="F54" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19220</v>
+      </c>
+      <c r="H54" t="n">
+        <v>24</v>
+      </c>
+      <c r="I54" t="n">
+        <v>38438</v>
       </c>
     </row>
     <row r="55">
@@ -2778,25 +2354,17 @@
           <t xml:space="preserve"> hcai-bench/./arrays_orig</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F55" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13</v>
+      </c>
+      <c r="H55" t="n">
+        <v>30</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -2821,25 +2389,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>41697</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>83386</t>
-        </is>
+      <c r="F56" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" t="n">
+        <v>41697</v>
+      </c>
+      <c r="H56" t="n">
+        <v>24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>83386</v>
       </c>
     </row>
     <row r="57">
@@ -2864,25 +2424,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F57" t="n">
+        <v>34</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19</v>
+      </c>
+      <c r="H57" t="n">
+        <v>70</v>
+      </c>
+      <c r="I57" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -2907,25 +2459,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1018</t>
-        </is>
+      <c r="F58" t="n">
+        <v>15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>510</v>
+      </c>
+      <c r="H58" t="n">
+        <v>34</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1018</v>
       </c>
     </row>
     <row r="59">
@@ -2950,25 +2494,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="F59" t="n">
+        <v>18</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>34</v>
+      </c>
+      <c r="I59" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -2993,25 +2529,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>16</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -3036,25 +2564,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
+      <c r="F61" t="n">
+        <v>15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>319</v>
+      </c>
+      <c r="H61" t="n">
+        <v>34</v>
+      </c>
+      <c r="I61" t="n">
+        <v>636</v>
       </c>
     </row>
     <row r="62">
@@ -3079,25 +2599,17 @@
           <t xml:space="preserve"> llreve-bench/./smt2/quant/clausified-no-arrays</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>668</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2102</t>
-        </is>
+      <c r="F62" t="n">
+        <v>101</v>
+      </c>
+      <c r="G62" t="n">
+        <v>668</v>
+      </c>
+      <c r="H62" t="n">
+        <v>930</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2102</v>
       </c>
     </row>
     <row r="63">
@@ -3122,25 +2634,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>901</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2897</t>
-        </is>
+      <c r="F63" t="n">
+        <v>41</v>
+      </c>
+      <c r="G63" t="n">
+        <v>901</v>
+      </c>
+      <c r="H63" t="n">
+        <v>122</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2897</v>
       </c>
     </row>
     <row r="64">
@@ -3165,25 +2669,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringBuilderChars04/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>616</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
+      <c r="F64" t="n">
+        <v>300</v>
+      </c>
+      <c r="G64" t="n">
+        <v>76</v>
+      </c>
+      <c r="H64" t="n">
+        <v>616</v>
+      </c>
+      <c r="I64" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="65">
@@ -3208,25 +2704,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>828</t>
-        </is>
+      <c r="F65" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" t="n">
+        <v>415</v>
+      </c>
+      <c r="H65" t="n">
+        <v>34</v>
+      </c>
+      <c r="I65" t="n">
+        <v>828</v>
       </c>
     </row>
     <row r="66">
@@ -3251,25 +2739,17 @@
           <t xml:space="preserve"> hopv/./lia/mochi</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3294,25 +2774,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>5296</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>10580</t>
-        </is>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5296</v>
+      </c>
+      <c r="H67" t="n">
+        <v>28</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10580</v>
       </c>
     </row>
     <row r="68">
@@ -3337,25 +2809,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F68" t="n">
+        <v>15</v>
+      </c>
+      <c r="G68" t="n">
+        <v>317</v>
+      </c>
+      <c r="H68" t="n">
+        <v>34</v>
+      </c>
+      <c r="I68" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="69">
@@ -3380,25 +2844,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="n">
+        <v>504</v>
+      </c>
+      <c r="H69" t="n">
+        <v>34</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1006</v>
       </c>
     </row>
     <row r="70">
@@ -3423,25 +2879,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F70" t="n">
+        <v>34</v>
+      </c>
+      <c r="G70" t="n">
+        <v>19</v>
+      </c>
+      <c r="H70" t="n">
+        <v>70</v>
+      </c>
+      <c r="I70" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="71">
@@ -3466,25 +2914,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F71" t="n">
+        <v>15</v>
+      </c>
+      <c r="G71" t="n">
+        <v>317</v>
+      </c>
+      <c r="H71" t="n">
+        <v>34</v>
+      </c>
+      <c r="I71" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="72">
@@ -3509,25 +2949,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/SortedListInsert-FunSat02/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+      <c r="F72" t="n">
+        <v>235</v>
+      </c>
+      <c r="G72" t="n">
+        <v>112</v>
+      </c>
+      <c r="H72" t="n">
+        <v>478</v>
+      </c>
+      <c r="I72" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="73">
@@ -3552,25 +2984,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>56860</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>172353</t>
-        </is>
+      <c r="F73" t="n">
+        <v>45</v>
+      </c>
+      <c r="G73" t="n">
+        <v>56860</v>
+      </c>
+      <c r="H73" t="n">
+        <v>123</v>
+      </c>
+      <c r="I73" t="n">
+        <v>172353</v>
       </c>
     </row>
     <row r="74">
@@ -3595,25 +3019,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>648</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
+      <c r="F74" t="n">
+        <v>318</v>
+      </c>
+      <c r="G74" t="n">
+        <v>108</v>
+      </c>
+      <c r="H74" t="n">
+        <v>648</v>
+      </c>
+      <c r="I74" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="75">
@@ -3638,25 +3054,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>1913</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>3314</t>
-        </is>
+      <c r="F75" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1913</v>
+      </c>
+      <c r="H75" t="n">
+        <v>34</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3314</v>
       </c>
     </row>
     <row r="76">
@@ -3681,25 +3089,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/RedBlackTree-MemUnsat01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2088</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>749</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>4192</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1516</t>
-        </is>
+      <c r="F76" t="n">
+        <v>2088</v>
+      </c>
+      <c r="G76" t="n">
+        <v>749</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4192</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1516</v>
       </c>
     </row>
     <row r="77">
@@ -3724,25 +3124,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>72547</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>221204</t>
-        </is>
+      <c r="F77" t="n">
+        <v>62</v>
+      </c>
+      <c r="G77" t="n">
+        <v>72547</v>
+      </c>
+      <c r="H77" t="n">
+        <v>179</v>
+      </c>
+      <c r="I77" t="n">
+        <v>221204</v>
       </c>
     </row>
     <row r="78">
@@ -3767,25 +3159,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>19</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -3810,25 +3194,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>9678</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>19354</t>
-        </is>
+      <c r="F79" t="n">
+        <v>12</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9678</v>
+      </c>
+      <c r="H79" t="n">
+        <v>24</v>
+      </c>
+      <c r="I79" t="n">
+        <v>19354</v>
       </c>
     </row>
     <row r="80">
@@ -3853,25 +3229,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3896,25 +3264,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F81" t="n">
+        <v>34</v>
+      </c>
+      <c r="G81" t="n">
+        <v>19</v>
+      </c>
+      <c r="H81" t="n">
+        <v>70</v>
+      </c>
+      <c r="I81" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="82">
@@ -3939,25 +3299,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/ldv-linux-3.0</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>51966</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>103937</t>
-        </is>
+      <c r="F82" t="n">
+        <v>26</v>
+      </c>
+      <c r="G82" t="n">
+        <v>51966</v>
+      </c>
+      <c r="H82" t="n">
+        <v>76</v>
+      </c>
+      <c r="I82" t="n">
+        <v>103937</v>
       </c>
     </row>
     <row r="83">
@@ -3982,25 +3334,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>81384</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>858</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>180951</t>
-        </is>
+      <c r="F83" t="n">
+        <v>260</v>
+      </c>
+      <c r="G83" t="n">
+        <v>81384</v>
+      </c>
+      <c r="H83" t="n">
+        <v>858</v>
+      </c>
+      <c r="I83" t="n">
+        <v>180951</v>
       </c>
     </row>
     <row r="84">
@@ -4025,25 +3369,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="F84" t="n">
+        <v>9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>19</v>
+      </c>
+      <c r="I84" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -4068,25 +3404,17 @@
           <t xml:space="preserve"> sv-comp/./LIA/Eldarica/RECUR</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="F85" t="n">
+        <v>13</v>
+      </c>
+      <c r="G85" t="n">
+        <v>11</v>
+      </c>
+      <c r="H85" t="n">
+        <v>28</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="86">
@@ -4111,25 +3439,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>2186</t>
-        </is>
+      <c r="F86" t="n">
+        <v>35</v>
+      </c>
+      <c r="G86" t="n">
+        <v>675</v>
+      </c>
+      <c r="H86" t="n">
+        <v>101</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2186</v>
       </c>
     </row>
     <row r="87">
@@ -4154,25 +3474,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="n">
+        <v>317</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34</v>
+      </c>
+      <c r="I87" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="88">
@@ -4197,25 +3509,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>431</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="n">
+        <v>431</v>
+      </c>
+      <c r="H88" t="n">
+        <v>34</v>
+      </c>
+      <c r="I88" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="89">
@@ -4240,25 +3544,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/MergeSortIterative-MemSat01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
+      <c r="F89" t="n">
+        <v>345</v>
+      </c>
+      <c r="G89" t="n">
+        <v>123</v>
+      </c>
+      <c r="H89" t="n">
+        <v>712</v>
+      </c>
+      <c r="I89" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="90">
@@ -4283,25 +3579,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F90" t="n">
+        <v>34</v>
+      </c>
+      <c r="G90" t="n">
+        <v>19</v>
+      </c>
+      <c r="H90" t="n">
+        <v>70</v>
+      </c>
+      <c r="I90" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="91">
@@ -4326,25 +3614,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>431</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="n">
+        <v>431</v>
+      </c>
+      <c r="H91" t="n">
+        <v>34</v>
+      </c>
+      <c r="I91" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="92">
@@ -4369,25 +3649,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>97873</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>222868</t>
-        </is>
+      <c r="F92" t="n">
+        <v>62</v>
+      </c>
+      <c r="G92" t="n">
+        <v>97873</v>
+      </c>
+      <c r="H92" t="n">
+        <v>179</v>
+      </c>
+      <c r="I92" t="n">
+        <v>222868</v>
       </c>
     </row>
     <row r="93">
@@ -4412,25 +3684,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>970</t>
-        </is>
+      <c r="F93" t="n">
+        <v>15</v>
+      </c>
+      <c r="G93" t="n">
+        <v>486</v>
+      </c>
+      <c r="H93" t="n">
+        <v>34</v>
+      </c>
+      <c r="I93" t="n">
+        <v>970</v>
       </c>
     </row>
     <row r="94">
@@ -4455,25 +3719,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/RegexSubstitution02/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>778</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>1585</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>472</t>
-        </is>
+      <c r="F94" t="n">
+        <v>778</v>
+      </c>
+      <c r="G94" t="n">
+        <v>217</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1585</v>
+      </c>
+      <c r="I94" t="n">
+        <v>472</v>
       </c>
     </row>
     <row r="95">
@@ -4498,25 +3754,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product45/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1145</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2369</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>1022</t>
-        </is>
+      <c r="F95" t="n">
+        <v>1145</v>
+      </c>
+      <c r="G95" t="n">
+        <v>475</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2369</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1022</v>
       </c>
     </row>
     <row r="96">
@@ -4541,25 +3789,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>40798</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>81588</t>
-        </is>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>40798</v>
+      </c>
+      <c r="H96" t="n">
+        <v>22</v>
+      </c>
+      <c r="I96" t="n">
+        <v>81588</v>
       </c>
     </row>
     <row r="97">
@@ -4584,25 +3824,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/MergeSortIterative-MemSat01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>751</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="F97" t="n">
+        <v>363</v>
+      </c>
+      <c r="G97" t="n">
+        <v>124</v>
+      </c>
+      <c r="H97" t="n">
+        <v>751</v>
+      </c>
+      <c r="I97" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="98">
@@ -4627,25 +3859,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F98" t="n">
+        <v>15</v>
+      </c>
+      <c r="G98" t="n">
+        <v>384</v>
+      </c>
+      <c r="H98" t="n">
+        <v>34</v>
+      </c>
+      <c r="I98" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="99">
@@ -4670,25 +3894,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatHanoi01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="F99" t="n">
+        <v>91</v>
+      </c>
+      <c r="G99" t="n">
+        <v>14</v>
+      </c>
+      <c r="H99" t="n">
+        <v>188</v>
+      </c>
+      <c r="I99" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -4713,25 +3929,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F100" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
+        <v>16</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -4756,25 +3964,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F101" t="n">
+        <v>34</v>
+      </c>
+      <c r="G101" t="n">
+        <v>19</v>
+      </c>
+      <c r="H101" t="n">
+        <v>70</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -4799,25 +3999,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F102" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" t="n">
+        <v>343</v>
+      </c>
+      <c r="H102" t="n">
+        <v>34</v>
+      </c>
+      <c r="I102" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="103">
@@ -4842,25 +4034,17 @@
           <t xml:space="preserve"> hcai-bench/./arrays_orig</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="F103" t="n">
+        <v>28</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>58</v>
+      </c>
+      <c r="I103" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="104">
@@ -4885,25 +4069,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F104" t="n">
+        <v>34</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19</v>
+      </c>
+      <c r="H104" t="n">
+        <v>70</v>
+      </c>
+      <c r="I104" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -4928,25 +4104,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>52095</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>161508</t>
-        </is>
+      <c r="F105" t="n">
+        <v>120</v>
+      </c>
+      <c r="G105" t="n">
+        <v>52095</v>
+      </c>
+      <c r="H105" t="n">
+        <v>376</v>
+      </c>
+      <c r="I105" t="n">
+        <v>161508</v>
       </c>
     </row>
     <row r="106">
@@ -4971,25 +4139,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F106" t="n">
+        <v>9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -5014,25 +4174,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>864</t>
-        </is>
+      <c r="F107" t="n">
+        <v>15</v>
+      </c>
+      <c r="G107" t="n">
+        <v>433</v>
+      </c>
+      <c r="H107" t="n">
+        <v>34</v>
+      </c>
+      <c r="I107" t="n">
+        <v>864</v>
       </c>
     </row>
     <row r="108">
@@ -5057,25 +4209,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>3347</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>6689</t>
-        </is>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3347</v>
+      </c>
+      <c r="H108" t="n">
+        <v>14</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6689</v>
       </c>
     </row>
     <row r="109">
@@ -5100,25 +4244,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>35766</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>110219</t>
-        </is>
+      <c r="F109" t="n">
+        <v>82</v>
+      </c>
+      <c r="G109" t="n">
+        <v>35766</v>
+      </c>
+      <c r="H109" t="n">
+        <v>246</v>
+      </c>
+      <c r="I109" t="n">
+        <v>110219</v>
       </c>
     </row>
     <row r="110">
@@ -5143,25 +4279,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F110" t="n">
+        <v>15</v>
+      </c>
+      <c r="G110" t="n">
+        <v>317</v>
+      </c>
+      <c r="H110" t="n">
+        <v>34</v>
+      </c>
+      <c r="I110" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="111">
@@ -5186,25 +4314,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/astore_aload1/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>1738</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>3615</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
+      <c r="F111" t="n">
+        <v>1738</v>
+      </c>
+      <c r="G111" t="n">
+        <v>731</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3615</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="112">
@@ -5229,25 +4349,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F112" t="n">
+        <v>15</v>
+      </c>
+      <c r="G112" t="n">
+        <v>384</v>
+      </c>
+      <c r="H112" t="n">
+        <v>34</v>
+      </c>
+      <c r="I112" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="113">
@@ -5272,25 +4384,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>11827</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>38232</t>
-        </is>
+      <c r="F113" t="n">
+        <v>208</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11827</v>
+      </c>
+      <c r="H113" t="n">
+        <v>678</v>
+      </c>
+      <c r="I113" t="n">
+        <v>38232</v>
       </c>
     </row>
     <row r="114">
@@ -5315,25 +4419,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>16679</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>54252</t>
-        </is>
+      <c r="F114" t="n">
+        <v>296</v>
+      </c>
+      <c r="G114" t="n">
+        <v>16679</v>
+      </c>
+      <c r="H114" t="n">
+        <v>980</v>
+      </c>
+      <c r="I114" t="n">
+        <v>54252</v>
       </c>
     </row>
     <row r="115">
@@ -5358,25 +4454,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>16</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -5401,25 +4489,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17</v>
+      </c>
+      <c r="H116" t="n">
+        <v>46</v>
+      </c>
+      <c r="I116" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="117">
@@ -5444,25 +4524,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>1022</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>2042</t>
-        </is>
+      <c r="F117" t="n">
+        <v>26</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H117" t="n">
+        <v>70</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2042</v>
       </c>
     </row>
     <row r="118">
@@ -5487,25 +4559,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringBuilderChars01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>607</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
+      <c r="F118" t="n">
+        <v>294</v>
+      </c>
+      <c r="G118" t="n">
+        <v>131</v>
+      </c>
+      <c r="H118" t="n">
+        <v>607</v>
+      </c>
+      <c r="I118" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="119">
@@ -5530,25 +4594,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>1028</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2054</t>
-        </is>
+      <c r="F119" t="n">
+        <v>26</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1028</v>
+      </c>
+      <c r="H119" t="n">
+        <v>70</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2054</v>
       </c>
     </row>
     <row r="120">
@@ -5573,25 +4629,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>48532</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>111307</t>
-        </is>
+      <c r="F120" t="n">
+        <v>82</v>
+      </c>
+      <c r="G120" t="n">
+        <v>48532</v>
+      </c>
+      <c r="H120" t="n">
+        <v>246</v>
+      </c>
+      <c r="I120" t="n">
+        <v>111307</v>
       </c>
     </row>
     <row r="121">
@@ -5616,25 +4664,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>824</t>
-        </is>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+      <c r="G121" t="n">
+        <v>413</v>
+      </c>
+      <c r="H121" t="n">
+        <v>34</v>
+      </c>
+      <c r="I121" t="n">
+        <v>824</v>
       </c>
     </row>
     <row r="122">
@@ -5659,25 +4699,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F122" t="n">
+        <v>9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -5702,25 +4734,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>41681</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>129114</t>
-        </is>
+      <c r="F123" t="n">
+        <v>101</v>
+      </c>
+      <c r="G123" t="n">
+        <v>41681</v>
+      </c>
+      <c r="H123" t="n">
+        <v>310</v>
+      </c>
+      <c r="I123" t="n">
+        <v>129114</v>
       </c>
     </row>
     <row r="124">
@@ -5745,25 +4769,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F124" t="n">
+        <v>15</v>
+      </c>
+      <c r="G124" t="n">
+        <v>384</v>
+      </c>
+      <c r="H124" t="n">
+        <v>34</v>
+      </c>
+      <c r="I124" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="125">
@@ -5788,25 +4804,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>35766</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>110219</t>
-        </is>
+      <c r="F125" t="n">
+        <v>82</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35766</v>
+      </c>
+      <c r="H125" t="n">
+        <v>246</v>
+      </c>
+      <c r="I125" t="n">
+        <v>110219</v>
       </c>
     </row>
     <row r="126">
@@ -5831,25 +4839,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F126" t="n">
+        <v>9</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>16</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -5874,25 +4874,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="n">
+        <v>345</v>
+      </c>
+      <c r="H127" t="n">
+        <v>34</v>
+      </c>
+      <c r="I127" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="128">
@@ -5917,25 +4909,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/aastore_aaload1/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>695</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
+      <c r="F128" t="n">
+        <v>345</v>
+      </c>
+      <c r="G128" t="n">
+        <v>68</v>
+      </c>
+      <c r="H128" t="n">
+        <v>695</v>
+      </c>
+      <c r="I128" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="129">
@@ -5960,25 +4944,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>1034</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>2066</t>
-        </is>
+      <c r="F129" t="n">
+        <v>25</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H129" t="n">
+        <v>68</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2066</v>
       </c>
     </row>
     <row r="130">
@@ -6003,25 +4979,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F130" t="n">
+        <v>9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>16</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -6046,25 +5014,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
+      <c r="F131" t="n">
+        <v>14</v>
+      </c>
+      <c r="G131" t="n">
+        <v>193</v>
+      </c>
+      <c r="H131" t="n">
+        <v>28</v>
+      </c>
+      <c r="I131" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="132">
@@ -6089,25 +5049,17 @@
           <t xml:space="preserve"> sv-comp/./LIA/Eldarica/RECUR</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>32</v>
+      </c>
+      <c r="I132" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -6132,25 +5084,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./java-ranger-regression/printtokens_eqchk/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2541</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>979</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>5557</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>2453</t>
-        </is>
+      <c r="F133" t="n">
+        <v>2541</v>
+      </c>
+      <c r="G133" t="n">
+        <v>979</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5557</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2453</v>
       </c>
     </row>
     <row r="134">
@@ -6175,25 +5119,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>8075</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>16148</t>
-        </is>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8075</v>
+      </c>
+      <c r="H134" t="n">
+        <v>24</v>
+      </c>
+      <c r="I134" t="n">
+        <v>16148</v>
       </c>
     </row>
     <row r="135">
@@ -6218,25 +5154,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2099</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>4195</t>
-        </is>
+      <c r="F135" t="n">
+        <v>21</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2099</v>
+      </c>
+      <c r="H135" t="n">
+        <v>63</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4195</v>
       </c>
     </row>
     <row r="136">
@@ -6261,25 +5189,17 @@
           <t xml:space="preserve"> llreve-bench/./smt2/quant/clausified-no-arrays</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>624</t>
-        </is>
+      <c r="F136" t="n">
+        <v>43</v>
+      </c>
+      <c r="G136" t="n">
+        <v>176</v>
+      </c>
+      <c r="H136" t="n">
+        <v>251</v>
+      </c>
+      <c r="I136" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="137">
@@ -6304,25 +5224,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F137" t="n">
+        <v>15</v>
+      </c>
+      <c r="G137" t="n">
+        <v>343</v>
+      </c>
+      <c r="H137" t="n">
+        <v>34</v>
+      </c>
+      <c r="I137" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="138">
@@ -6347,25 +5259,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>5218</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>10424</t>
-        </is>
+      <c r="F138" t="n">
+        <v>14</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5218</v>
+      </c>
+      <c r="H138" t="n">
+        <v>28</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10424</v>
       </c>
     </row>
     <row r="139">
@@ -6390,25 +5294,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F139" t="n">
+        <v>9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>16</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -6433,25 +5329,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
+      <c r="F140" t="n">
+        <v>13</v>
+      </c>
+      <c r="G140" t="n">
+        <v>193</v>
+      </c>
+      <c r="H140" t="n">
+        <v>26</v>
+      </c>
+      <c r="I140" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="141">
@@ -6476,25 +5364,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F141" t="n">
+        <v>15</v>
+      </c>
+      <c r="G141" t="n">
+        <v>343</v>
+      </c>
+      <c r="H141" t="n">
+        <v>34</v>
+      </c>
+      <c r="I141" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="142">
@@ -6519,25 +5399,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>22970</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>45936</t>
-        </is>
+      <c r="F142" t="n">
+        <v>12</v>
+      </c>
+      <c r="G142" t="n">
+        <v>22970</v>
+      </c>
+      <c r="H142" t="n">
+        <v>24</v>
+      </c>
+      <c r="I142" t="n">
+        <v>45936</v>
       </c>
     </row>
     <row r="143">
@@ -6562,25 +5434,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F143" t="n">
+        <v>34</v>
+      </c>
+      <c r="G143" t="n">
+        <v>19</v>
+      </c>
+      <c r="H143" t="n">
+        <v>70</v>
+      </c>
+      <c r="I143" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="144">
@@ -6605,25 +5469,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="n">
+        <v>384</v>
+      </c>
+      <c r="H144" t="n">
+        <v>34</v>
+      </c>
+      <c r="I144" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="145">
@@ -6648,25 +5504,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>407</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>812</t>
-        </is>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="n">
+        <v>407</v>
+      </c>
+      <c r="H145" t="n">
+        <v>34</v>
+      </c>
+      <c r="I145" t="n">
+        <v>812</v>
       </c>
     </row>
     <row r="146">
@@ -6691,25 +5539,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatMultCommutative01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="F146" t="n">
+        <v>84</v>
+      </c>
+      <c r="G146" t="n">
+        <v>11</v>
+      </c>
+      <c r="H146" t="n">
+        <v>173</v>
+      </c>
+      <c r="I146" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="147">
@@ -6734,25 +5574,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
+      <c r="F147" t="n">
+        <v>61</v>
+      </c>
+      <c r="G147" t="n">
+        <v>184</v>
+      </c>
+      <c r="H147" t="n">
+        <v>196</v>
+      </c>
+      <c r="I147" t="n">
+        <v>655</v>
       </c>
     </row>
     <row r="148">
@@ -6777,25 +5609,17 @@
           <t xml:space="preserve"> hopv/./lia/mochi</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
+      <c r="F148" t="n">
+        <v>89</v>
+      </c>
+      <c r="G148" t="n">
+        <v>100</v>
+      </c>
+      <c r="H148" t="n">
+        <v>416</v>
+      </c>
+      <c r="I148" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="149">
@@ -6820,25 +5644,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F149" t="n">
+        <v>23</v>
+      </c>
+      <c r="G149" t="n">
+        <v>13</v>
+      </c>
+      <c r="H149" t="n">
+        <v>47</v>
+      </c>
+      <c r="I149" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="150">
@@ -6863,25 +5679,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F150" t="n">
+        <v>9</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16</v>
+      </c>
+      <c r="I150" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -6906,25 +5714,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>11424</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>22846</t>
-        </is>
+      <c r="F151" t="n">
+        <v>12</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11424</v>
+      </c>
+      <c r="H151" t="n">
+        <v>24</v>
+      </c>
+      <c r="I151" t="n">
+        <v>22846</v>
       </c>
     </row>
     <row r="152">
@@ -6949,25 +5749,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>56860</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>172353</t>
-        </is>
+      <c r="F152" t="n">
+        <v>45</v>
+      </c>
+      <c r="G152" t="n">
+        <v>56860</v>
+      </c>
+      <c r="H152" t="n">
+        <v>123</v>
+      </c>
+      <c r="I152" t="n">
+        <v>172353</v>
       </c>
     </row>
     <row r="153">
@@ -6992,25 +5784,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F153" t="n">
+        <v>15</v>
+      </c>
+      <c r="G153" t="n">
+        <v>317</v>
+      </c>
+      <c r="H153" t="n">
+        <v>34</v>
+      </c>
+      <c r="I153" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="154">
@@ -7035,25 +5819,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>4021</t>
-        </is>
+      <c r="F154" t="n">
+        <v>21</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H154" t="n">
+        <v>63</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4021</v>
       </c>
     </row>
     <row r="155">
@@ -7078,25 +5854,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F155" t="n">
+        <v>15</v>
+      </c>
+      <c r="G155" t="n">
+        <v>317</v>
+      </c>
+      <c r="H155" t="n">
+        <v>34</v>
+      </c>
+      <c r="I155" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="156">
@@ -7121,25 +5889,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/list1/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>803</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
+      <c r="F156" t="n">
+        <v>395</v>
+      </c>
+      <c r="G156" t="n">
+        <v>122</v>
+      </c>
+      <c r="H156" t="n">
+        <v>803</v>
+      </c>
+      <c r="I156" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="157">
@@ -7164,25 +5924,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/InsertionSort-FunSat01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="F157" t="n">
+        <v>332</v>
+      </c>
+      <c r="G157" t="n">
+        <v>105</v>
+      </c>
+      <c r="H157" t="n">
+        <v>674</v>
+      </c>
+      <c r="I157" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="158">
@@ -7207,25 +5959,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F158" t="n">
+        <v>9</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4</v>
+      </c>
+      <c r="H158" t="n">
+        <v>16</v>
+      </c>
+      <c r="I158" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -7250,25 +5994,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>113700</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>286033</t>
-        </is>
+      <c r="F159" t="n">
+        <v>45</v>
+      </c>
+      <c r="G159" t="n">
+        <v>113700</v>
+      </c>
+      <c r="H159" t="n">
+        <v>123</v>
+      </c>
+      <c r="I159" t="n">
+        <v>286033</v>
       </c>
     </row>
     <row r="160">
@@ -7293,25 +6029,17 @@
           <t xml:space="preserve"> hopv/./lia/mochi</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+      <c r="I160" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -7336,25 +6064,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F161" t="n">
+        <v>9</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>18</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="162">
@@ -7379,25 +6099,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
+      <c r="F162" t="n">
+        <v>15</v>
+      </c>
+      <c r="G162" t="n">
+        <v>340</v>
+      </c>
+      <c r="H162" t="n">
+        <v>34</v>
+      </c>
+      <c r="I162" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="163">
@@ -7422,25 +6134,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F163" t="n">
+        <v>15</v>
+      </c>
+      <c r="G163" t="n">
+        <v>343</v>
+      </c>
+      <c r="H163" t="n">
+        <v>34</v>
+      </c>
+      <c r="I163" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="164">
@@ -7465,25 +6169,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="F164" t="n">
+        <v>9</v>
+      </c>
+      <c r="G164" t="n">
+        <v>8</v>
+      </c>
+      <c r="H164" t="n">
+        <v>19</v>
+      </c>
+      <c r="I164" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -7508,25 +6204,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>164607</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>449</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>507104</t>
-        </is>
+      <c r="F165" t="n">
+        <v>142</v>
+      </c>
+      <c r="G165" t="n">
+        <v>164607</v>
+      </c>
+      <c r="H165" t="n">
+        <v>449</v>
+      </c>
+      <c r="I165" t="n">
+        <v>507104</v>
       </c>
     </row>
     <row r="166">
@@ -7551,25 +6239,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/RedBlackTree-MemSat01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>1204</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2526</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
+      <c r="F166" t="n">
+        <v>1204</v>
+      </c>
+      <c r="G166" t="n">
+        <v>503</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2526</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1127</v>
       </c>
     </row>
     <row r="167">
@@ -7594,25 +6274,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F167" t="n">
+        <v>9</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>16</v>
+      </c>
+      <c r="I167" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -7637,25 +6309,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>70836</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>163045</t>
-        </is>
+      <c r="F168" t="n">
+        <v>121</v>
+      </c>
+      <c r="G168" t="n">
+        <v>70836</v>
+      </c>
+      <c r="H168" t="n">
+        <v>377</v>
+      </c>
+      <c r="I168" t="n">
+        <v>163045</v>
       </c>
     </row>
     <row r="169">
@@ -7680,25 +6344,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/BinaryTreeSearch-FunSat01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
+      <c r="F169" t="n">
+        <v>324</v>
+      </c>
+      <c r="G169" t="n">
+        <v>138</v>
+      </c>
+      <c r="H169" t="n">
+        <v>659</v>
+      </c>
+      <c r="I169" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="170">
@@ -7723,25 +6379,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>8481</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>26502</t>
-        </is>
+      <c r="F170" t="n">
+        <v>35</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8481</v>
+      </c>
+      <c r="H170" t="n">
+        <v>92</v>
+      </c>
+      <c r="I170" t="n">
+        <v>26502</v>
       </c>
     </row>
     <row r="171">
@@ -7766,25 +6414,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F171" t="n">
+        <v>9</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4</v>
+      </c>
+      <c r="H171" t="n">
+        <v>16</v>
+      </c>
+      <c r="I171" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -7809,25 +6449,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="F172" t="n">
+        <v>26</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H172" t="n">
+        <v>70</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="173">
@@ -7852,25 +6484,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>8074</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>16146</t>
-        </is>
+      <c r="F173" t="n">
+        <v>12</v>
+      </c>
+      <c r="G173" t="n">
+        <v>8074</v>
+      </c>
+      <c r="H173" t="n">
+        <v>24</v>
+      </c>
+      <c r="I173" t="n">
+        <v>16146</v>
       </c>
     </row>
     <row r="174">
@@ -7895,25 +6519,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>1741</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>5560</t>
-        </is>
+      <c r="F174" t="n">
+        <v>35</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1741</v>
+      </c>
+      <c r="H174" t="n">
+        <v>101</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5560</v>
       </c>
     </row>
     <row r="175">
@@ -7938,25 +6554,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F175" t="n">
+        <v>34</v>
+      </c>
+      <c r="G175" t="n">
+        <v>19</v>
+      </c>
+      <c r="H175" t="n">
+        <v>70</v>
+      </c>
+      <c r="I175" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="176">
@@ -7981,25 +6589,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>19220</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>38438</t>
-        </is>
+      <c r="F176" t="n">
+        <v>12</v>
+      </c>
+      <c r="G176" t="n">
+        <v>19220</v>
+      </c>
+      <c r="H176" t="n">
+        <v>24</v>
+      </c>
+      <c r="I176" t="n">
+        <v>38438</v>
       </c>
     </row>
     <row r="177">
@@ -8024,25 +6624,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>18776</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>58925</t>
-        </is>
+      <c r="F177" t="n">
+        <v>121</v>
+      </c>
+      <c r="G177" t="n">
+        <v>18776</v>
+      </c>
+      <c r="H177" t="n">
+        <v>377</v>
+      </c>
+      <c r="I177" t="n">
+        <v>58925</v>
       </c>
     </row>
     <row r="178">
@@ -8067,25 +6659,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>828</t>
-        </is>
+      <c r="F178" t="n">
+        <v>15</v>
+      </c>
+      <c r="G178" t="n">
+        <v>415</v>
+      </c>
+      <c r="H178" t="n">
+        <v>34</v>
+      </c>
+      <c r="I178" t="n">
+        <v>828</v>
       </c>
     </row>
     <row r="179">
@@ -8110,25 +6694,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="n">
+        <v>14</v>
+      </c>
+      <c r="H179" t="n">
+        <v>32</v>
+      </c>
+      <c r="I179" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="180">
@@ -8153,25 +6729,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
+      <c r="F180" t="n">
+        <v>15</v>
+      </c>
+      <c r="G180" t="n">
+        <v>317</v>
+      </c>
+      <c r="H180" t="n">
+        <v>34</v>
+      </c>
+      <c r="I180" t="n">
+        <v>632</v>
       </c>
     </row>
     <row r="181">
@@ -8196,25 +6764,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F181" t="n">
+        <v>9</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>16</v>
+      </c>
+      <c r="I181" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -8239,25 +6799,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>17714</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>35426</t>
-        </is>
+      <c r="F182" t="n">
+        <v>51</v>
+      </c>
+      <c r="G182" t="n">
+        <v>17714</v>
+      </c>
+      <c r="H182" t="n">
+        <v>133</v>
+      </c>
+      <c r="I182" t="n">
+        <v>35426</v>
       </c>
     </row>
     <row r="183">
@@ -8282,25 +6834,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>65971</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>131937</t>
-        </is>
+      <c r="F183" t="n">
+        <v>7</v>
+      </c>
+      <c r="G183" t="n">
+        <v>65971</v>
+      </c>
+      <c r="H183" t="n">
+        <v>14</v>
+      </c>
+      <c r="I183" t="n">
+        <v>131937</v>
       </c>
     </row>
     <row r="184">
@@ -8325,25 +6869,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F184" t="n">
+        <v>15</v>
+      </c>
+      <c r="G184" t="n">
+        <v>384</v>
+      </c>
+      <c r="H184" t="n">
+        <v>34</v>
+      </c>
+      <c r="I184" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="185">
@@ -8368,25 +6904,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>8075</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>16148</t>
-        </is>
+      <c r="F185" t="n">
+        <v>12</v>
+      </c>
+      <c r="G185" t="n">
+        <v>8075</v>
+      </c>
+      <c r="H185" t="n">
+        <v>24</v>
+      </c>
+      <c r="I185" t="n">
+        <v>16148</v>
       </c>
     </row>
     <row r="186">
@@ -8411,25 +6939,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>3882</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>7759</t>
-        </is>
+      <c r="F186" t="n">
+        <v>7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3882</v>
+      </c>
+      <c r="H186" t="n">
+        <v>14</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7759</v>
       </c>
     </row>
     <row r="187">
@@ -8454,25 +6974,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F187" t="n">
+        <v>15</v>
+      </c>
+      <c r="G187" t="n">
+        <v>343</v>
+      </c>
+      <c r="H187" t="n">
+        <v>34</v>
+      </c>
+      <c r="I187" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="188">
@@ -8497,25 +7009,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>8075</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>16148</t>
-        </is>
+      <c r="F188" t="n">
+        <v>12</v>
+      </c>
+      <c r="G188" t="n">
+        <v>8075</v>
+      </c>
+      <c r="H188" t="n">
+        <v>24</v>
+      </c>
+      <c r="I188" t="n">
+        <v>16148</v>
       </c>
     </row>
     <row r="189">
@@ -8540,25 +7044,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/ldv-linux-3.16-rc1</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>11406</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>22832</t>
-        </is>
+      <c r="F189" t="n">
+        <v>31</v>
+      </c>
+      <c r="G189" t="n">
+        <v>11406</v>
+      </c>
+      <c r="H189" t="n">
+        <v>68</v>
+      </c>
+      <c r="I189" t="n">
+        <v>22832</v>
       </c>
     </row>
     <row r="190">
@@ -8583,25 +7079,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F190" t="n">
+        <v>15</v>
+      </c>
+      <c r="G190" t="n">
+        <v>343</v>
+      </c>
+      <c r="H190" t="n">
+        <v>34</v>
+      </c>
+      <c r="I190" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="191">
@@ -8626,25 +7114,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
+      <c r="F191" t="n">
+        <v>16</v>
+      </c>
+      <c r="G191" t="n">
+        <v>385</v>
+      </c>
+      <c r="H191" t="n">
+        <v>34</v>
+      </c>
+      <c r="I191" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="192">
@@ -8669,25 +7149,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
+      <c r="F192" t="n">
+        <v>15</v>
+      </c>
+      <c r="G192" t="n">
+        <v>384</v>
+      </c>
+      <c r="H192" t="n">
+        <v>34</v>
+      </c>
+      <c r="I192" t="n">
+        <v>766</v>
       </c>
     </row>
     <row r="193">
@@ -8712,25 +7184,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>8481</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>26502</t>
-        </is>
+      <c r="F193" t="n">
+        <v>35</v>
+      </c>
+      <c r="G193" t="n">
+        <v>8481</v>
+      </c>
+      <c r="H193" t="n">
+        <v>92</v>
+      </c>
+      <c r="I193" t="n">
+        <v>26502</v>
       </c>
     </row>
     <row r="194">
@@ -8755,25 +7219,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/astore_aload1/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>1752</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>665</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3645</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>1528</t>
-        </is>
+      <c r="F194" t="n">
+        <v>1752</v>
+      </c>
+      <c r="G194" t="n">
+        <v>665</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3645</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1528</v>
       </c>
     </row>
     <row r="195">
@@ -8798,25 +7254,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/TokenTest01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>1067</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>428</t>
-        </is>
+      <c r="F195" t="n">
+        <v>529</v>
+      </c>
+      <c r="G195" t="n">
+        <v>206</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1067</v>
+      </c>
+      <c r="I195" t="n">
+        <v>428</v>
       </c>
     </row>
     <row r="196">
@@ -8841,25 +7289,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
+      <c r="F196" t="n">
+        <v>15</v>
+      </c>
+      <c r="G196" t="n">
+        <v>345</v>
+      </c>
+      <c r="H196" t="n">
+        <v>34</v>
+      </c>
+      <c r="I196" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="197">
@@ -8884,25 +7324,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F197" t="n">
+        <v>9</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>16</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -8927,25 +7359,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product42/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2335</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
+      <c r="F198" t="n">
+        <v>1129</v>
+      </c>
+      <c r="G198" t="n">
+        <v>466</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2335</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1001</v>
       </c>
     </row>
     <row r="199">
@@ -8970,25 +7394,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>12093</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>30736</t>
-        </is>
+      <c r="F199" t="n">
+        <v>32</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12093</v>
+      </c>
+      <c r="H199" t="n">
+        <v>83</v>
+      </c>
+      <c r="I199" t="n">
+        <v>30736</v>
       </c>
     </row>
     <row r="200">
@@ -9013,25 +7429,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>29288</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>58574</t>
-        </is>
+      <c r="F200" t="n">
+        <v>12</v>
+      </c>
+      <c r="G200" t="n">
+        <v>29288</v>
+      </c>
+      <c r="H200" t="n">
+        <v>24</v>
+      </c>
+      <c r="I200" t="n">
+        <v>58574</v>
       </c>
     </row>
     <row r="201">
@@ -9056,25 +7464,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatEvenOdd01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="F201" t="n">
+        <v>83</v>
+      </c>
+      <c r="G201" t="n">
+        <v>11</v>
+      </c>
+      <c r="H201" t="n">
+        <v>170</v>
+      </c>
+      <c r="I201" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="202">
@@ -9099,25 +7499,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>431</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
+      <c r="F202" t="n">
+        <v>15</v>
+      </c>
+      <c r="G202" t="n">
+        <v>431</v>
+      </c>
+      <c r="H202" t="n">
+        <v>34</v>
+      </c>
+      <c r="I202" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="203">
@@ -9142,25 +7534,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F203" t="n">
+        <v>15</v>
+      </c>
+      <c r="G203" t="n">
+        <v>343</v>
+      </c>
+      <c r="H203" t="n">
+        <v>34</v>
+      </c>
+      <c r="I203" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="204">
@@ -9185,25 +7569,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="n">
+        <v>13</v>
+      </c>
+      <c r="H204" t="n">
+        <v>47</v>
+      </c>
+      <c r="I204" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="205">
@@ -9228,25 +7604,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="F205" t="n">
+        <v>9</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>17</v>
+      </c>
+      <c r="I205" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -9271,25 +7639,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O0</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="F206" t="n">
+        <v>9</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4</v>
+      </c>
+      <c r="H206" t="n">
+        <v>16</v>
+      </c>
+      <c r="I206" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -9314,25 +7674,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/StringMiscellaneous01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>967</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
+      <c r="F207" t="n">
+        <v>477</v>
+      </c>
+      <c r="G207" t="n">
+        <v>72</v>
+      </c>
+      <c r="H207" t="n">
+        <v>967</v>
+      </c>
+      <c r="I207" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="208">
@@ -9357,25 +7709,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
+      <c r="F208" t="n">
+        <v>15</v>
+      </c>
+      <c r="G208" t="n">
+        <v>345</v>
+      </c>
+      <c r="H208" t="n">
+        <v>34</v>
+      </c>
+      <c r="I208" t="n">
+        <v>688</v>
       </c>
     </row>
     <row r="209">
@@ -9400,25 +7744,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./java-ranger-regression/printtokens_eqchk/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>3653</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>1312</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>7854</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>3231</t>
-        </is>
+      <c r="F209" t="n">
+        <v>3653</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1312</v>
+      </c>
+      <c r="H209" t="n">
+        <v>7854</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3231</v>
       </c>
     </row>
     <row r="210">
@@ -9443,25 +7779,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product46/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>1172</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2424</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>1044</t>
-        </is>
+      <c r="F210" t="n">
+        <v>1172</v>
+      </c>
+      <c r="G210" t="n">
+        <v>486</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2424</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1044</v>
       </c>
     </row>
     <row r="211">
@@ -9486,25 +7814,17 @@
           <t xml:space="preserve"> seahorn-benchmarks/./sv_comp_flat_small/recursive-simple</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="F211" t="n">
+        <v>9</v>
+      </c>
+      <c r="G211" t="n">
+        <v>7</v>
+      </c>
+      <c r="H211" t="n">
+        <v>18</v>
+      </c>
+      <c r="I211" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -9529,25 +7849,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>3616</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>7230</t>
-        </is>
+      <c r="F212" t="n">
+        <v>6</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3616</v>
+      </c>
+      <c r="H212" t="n">
+        <v>12</v>
+      </c>
+      <c r="I212" t="n">
+        <v>7230</v>
       </c>
     </row>
     <row r="213">
@@ -9572,25 +7884,17 @@
           <t xml:space="preserve"> llreve-bench/./smt2/quant/clausified-no-arrays</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="n">
+        <v>102</v>
+      </c>
+      <c r="H213" t="n">
+        <v>145</v>
+      </c>
+      <c r="I213" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="214">
@@ -9615,25 +7919,17 @@
           <t xml:space="preserve"> hcai-bench/./svcomp/O3</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="F214" t="n">
+        <v>18</v>
+      </c>
+      <c r="G214" t="n">
+        <v>15</v>
+      </c>
+      <c r="H214" t="n">
+        <v>34</v>
+      </c>
+      <c r="I214" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="215">
@@ -9658,25 +7954,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jbmc-regression/TokenTest01/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
+      <c r="F215" t="n">
+        <v>336</v>
+      </c>
+      <c r="G215" t="n">
+        <v>123</v>
+      </c>
+      <c r="H215" t="n">
+        <v>684</v>
+      </c>
+      <c r="I215" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="216">
@@ -9701,25 +7989,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>72547</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>221204</t>
-        </is>
+      <c r="F216" t="n">
+        <v>62</v>
+      </c>
+      <c r="G216" t="n">
+        <v>72547</v>
+      </c>
+      <c r="H216" t="n">
+        <v>179</v>
+      </c>
+      <c r="I216" t="n">
+        <v>221204</v>
       </c>
     </row>
     <row r="217">
@@ -9744,25 +8024,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
+      <c r="F217" t="n">
+        <v>16</v>
+      </c>
+      <c r="G217" t="n">
+        <v>385</v>
+      </c>
+      <c r="H217" t="n">
+        <v>34</v>
+      </c>
+      <c r="I217" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="218">
@@ -9787,25 +8059,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>6300</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>12584</t>
-        </is>
+      <c r="F218" t="n">
+        <v>13</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6300</v>
+      </c>
+      <c r="H218" t="n">
+        <v>26</v>
+      </c>
+      <c r="I218" t="n">
+        <v>12584</v>
       </c>
     </row>
     <row r="219">
@@ -9830,25 +8094,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F219" t="n">
+        <v>15</v>
+      </c>
+      <c r="G219" t="n">
+        <v>343</v>
+      </c>
+      <c r="H219" t="n">
+        <v>34</v>
+      </c>
+      <c r="I219" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="220">
@@ -9873,25 +8129,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>10308</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>33261</t>
-        </is>
+      <c r="F220" t="n">
+        <v>184</v>
+      </c>
+      <c r="G220" t="n">
+        <v>10308</v>
+      </c>
+      <c r="H220" t="n">
+        <v>595</v>
+      </c>
+      <c r="I220" t="n">
+        <v>33261</v>
       </c>
     </row>
     <row r="221">
@@ -9916,25 +8164,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product48/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>1202</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2485</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>1085</t>
-        </is>
+      <c r="F221" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G221" t="n">
+        <v>506</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2485</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1085</v>
       </c>
     </row>
     <row r="222">
@@ -9959,25 +8199,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
+      <c r="F222" t="n">
+        <v>16</v>
+      </c>
+      <c r="G222" t="n">
+        <v>385</v>
+      </c>
+      <c r="H222" t="n">
+        <v>34</v>
+      </c>
+      <c r="I222" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="223">
@@ -10002,25 +8234,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>72564</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>679</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>257913</t>
-        </is>
+      <c r="F223" t="n">
+        <v>209</v>
+      </c>
+      <c r="G223" t="n">
+        <v>72564</v>
+      </c>
+      <c r="H223" t="n">
+        <v>679</v>
+      </c>
+      <c r="I223" t="n">
+        <v>257913</v>
       </c>
     </row>
     <row r="224">
@@ -10045,25 +8269,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>4984</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>9956</t>
-        </is>
+      <c r="F224" t="n">
+        <v>14</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4984</v>
+      </c>
+      <c r="H224" t="n">
+        <v>28</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9956</v>
       </c>
     </row>
     <row r="225">
@@ -10088,25 +8304,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>8074</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>16146</t>
-        </is>
+      <c r="F225" t="n">
+        <v>12</v>
+      </c>
+      <c r="G225" t="n">
+        <v>8074</v>
+      </c>
+      <c r="H225" t="n">
+        <v>24</v>
+      </c>
+      <c r="I225" t="n">
+        <v>16146</v>
       </c>
     </row>
     <row r="226">
@@ -10131,25 +8339,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F226" t="n">
+        <v>15</v>
+      </c>
+      <c r="G226" t="n">
+        <v>343</v>
+      </c>
+      <c r="H226" t="n">
+        <v>34</v>
+      </c>
+      <c r="I226" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="227">
@@ -10174,25 +8374,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="F227" t="n">
+        <v>34</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19</v>
+      </c>
+      <c r="H227" t="n">
+        <v>70</v>
+      </c>
+      <c r="I227" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="228">
@@ -10217,25 +8409,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>20695</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>41388</t>
-        </is>
+      <c r="F228" t="n">
+        <v>12</v>
+      </c>
+      <c r="G228" t="n">
+        <v>20695</v>
+      </c>
+      <c r="H228" t="n">
+        <v>24</v>
+      </c>
+      <c r="I228" t="n">
+        <v>41388</v>
       </c>
     </row>
     <row r="229">
@@ -10260,25 +8444,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product47/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>1183</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2447</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>1063</t>
-        </is>
+      <c r="F229" t="n">
+        <v>1183</v>
+      </c>
+      <c r="G229" t="n">
+        <v>495</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2447</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1063</v>
       </c>
     </row>
     <row r="230">
@@ -10303,25 +8479,17 @@
           <t xml:space="preserve"> chc-comp19-benchmarks/./lia-nonlin</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>416</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
+      <c r="F230" t="n">
+        <v>89</v>
+      </c>
+      <c r="G230" t="n">
+        <v>100</v>
+      </c>
+      <c r="H230" t="n">
+        <v>416</v>
+      </c>
+      <c r="I230" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="231">
@@ -10346,25 +8514,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./jayhorn-recursive/SatMultCommutative01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="F231" t="n">
+        <v>122</v>
+      </c>
+      <c r="G231" t="n">
+        <v>20</v>
+      </c>
+      <c r="H231" t="n">
+        <v>249</v>
+      </c>
+      <c r="I231" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="232">
@@ -10389,25 +8549,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/RedBlackTree-FunSat01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>644</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3936</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
+      <c r="F232" t="n">
+        <v>1961</v>
+      </c>
+      <c r="G232" t="n">
+        <v>644</v>
+      </c>
+      <c r="H232" t="n">
+        <v>3936</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="233">
@@ -10432,25 +8584,17 @@
           <t xml:space="preserve"> llreve-bench/./smt2/quant/clausified-no-arrays</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>649</t>
-        </is>
+      <c r="F233" t="n">
+        <v>41</v>
+      </c>
+      <c r="G233" t="n">
+        <v>192</v>
+      </c>
+      <c r="H233" t="n">
+        <v>251</v>
+      </c>
+      <c r="I233" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="234">
@@ -10475,25 +8619,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./algorithms/RedBlackTree-MemSat01/smt-output-with-inlining</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>2278</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>4570</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>1661</t>
-        </is>
+      <c r="F234" t="n">
+        <v>2278</v>
+      </c>
+      <c r="G234" t="n">
+        <v>825</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4570</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1661</v>
       </c>
     </row>
     <row r="235">
@@ -10518,25 +8654,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>47633</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>767</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>162472</t>
-        </is>
+      <c r="F235" t="n">
+        <v>234</v>
+      </c>
+      <c r="G235" t="n">
+        <v>47633</v>
+      </c>
+      <c r="H235" t="n">
+        <v>767</v>
+      </c>
+      <c r="I235" t="n">
+        <v>162472</v>
       </c>
     </row>
     <row r="236">
@@ -10561,25 +8689,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
+      <c r="F236" t="n">
+        <v>15</v>
+      </c>
+      <c r="G236" t="n">
+        <v>343</v>
+      </c>
+      <c r="H236" t="n">
+        <v>34</v>
+      </c>
+      <c r="I236" t="n">
+        <v>684</v>
       </c>
     </row>
     <row r="237">
@@ -10604,25 +8724,17 @@
           <t xml:space="preserve"> jayhorn-benchmarks/./MinePump/spec1-5_product44/smt-output-no-inlining</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>1173</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2424</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>1046</t>
-        </is>
+      <c r="F237" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G237" t="n">
+        <v>488</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2424</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1046</v>
       </c>
     </row>
     <row r="238">
@@ -10647,25 +8759,17 @@
           <t xml:space="preserve"> synthesis/nay-horn/.</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>41681</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>129114</t>
-        </is>
+      <c r="F238" t="n">
+        <v>101</v>
+      </c>
+      <c r="G238" t="n">
+        <v>41681</v>
+      </c>
+      <c r="H238" t="n">
+        <v>310</v>
+      </c>
+      <c r="I238" t="n">
+        <v>129114</v>
       </c>
     </row>
     <row r="239">
@@ -10690,25 +8794,17 @@
           <t xml:space="preserve"> kind2-chc-benchmarks/./data</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
+      <c r="F239" t="n">
+        <v>14</v>
+      </c>
+      <c r="G239" t="n">
+        <v>193</v>
+      </c>
+      <c r="H239" t="n">
+        <v>28</v>
+      </c>
+      <c r="I239" t="n">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
